--- a/训练中心创客交叉融合空间建设/admin/建设经费/发改委0.8B/正式申报表格/投资设备土建-合成.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/建设经费/发改委0.8B/正式申报表格/投资设备土建-合成.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\166.111.198.40\guanlizu\1李兆基大楼信息化建设\数据中心\发改委双创项目\合并-2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Woody/Documents/Git Workspace/workzone/训练中心创客交叉融合空间建设/admin/建设经费/发改委0.8B/正式申报表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="设备总表" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">设备总表!$B$1:$M$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">设备总表!$2:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -465,7 +470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -482,7 +487,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1258,7 +1263,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1323,7 +1328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2023,10 +2028,6 @@
   </si>
   <si>
     <t>MC60</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>液态金属电路板打印系统</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3595,16 +3596,19 @@
     <t>含TIG焊机（YC-300WX ），液晶电视2台 （LED55K370+42PFL3045  ），电动单梁起重机 （LDA2T-14M ），笔记本电脑（ThinkPadS5） ，数码相机 （TLCE-5100L ），液晶电视 （65PFL5W48/T3 ），单反相机（EOS70D ），微单相机 （ILCE-5000L） ，针式打印机 （LQ-630K ），笔记本电脑 （E431 ），吸尘器（301-80L），4台台式机V270-R696</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>液态金属电路板打印系统</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3623,7 +3627,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3702,7 +3706,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3714,6 +3718,24 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3746,36 +3768,36 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="572">
+  <cellStyleXfs count="578">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5517,6 +5539,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
@@ -5599,8 +5639,296 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="572">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="578">
+    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="431"/>
+    <cellStyle name="一般 2" xfId="432"/>
+    <cellStyle name="一般 2 10" xfId="433"/>
+    <cellStyle name="一般 2 11" xfId="434"/>
+    <cellStyle name="一般 2 12" xfId="435"/>
+    <cellStyle name="一般 2 13" xfId="436"/>
+    <cellStyle name="一般 2 14" xfId="437"/>
+    <cellStyle name="一般 2 15" xfId="438"/>
+    <cellStyle name="一般 2 16" xfId="439"/>
+    <cellStyle name="一般 2 17" xfId="440"/>
+    <cellStyle name="一般 2 18" xfId="441"/>
+    <cellStyle name="一般 2 19" xfId="442"/>
+    <cellStyle name="一般 2 2" xfId="443"/>
+    <cellStyle name="一般 2 20" xfId="444"/>
+    <cellStyle name="一般 2 21" xfId="445"/>
+    <cellStyle name="一般 2 22" xfId="446"/>
+    <cellStyle name="一般 2 23" xfId="447"/>
+    <cellStyle name="一般 2 24" xfId="448"/>
+    <cellStyle name="一般 2 25" xfId="449"/>
+    <cellStyle name="一般 2 26" xfId="450"/>
+    <cellStyle name="一般 2 27" xfId="451"/>
+    <cellStyle name="一般 2 28" xfId="452"/>
+    <cellStyle name="一般 2 29" xfId="453"/>
+    <cellStyle name="一般 2 3" xfId="454"/>
+    <cellStyle name="一般 2 30" xfId="455"/>
+    <cellStyle name="一般 2 31" xfId="456"/>
+    <cellStyle name="一般 2 32" xfId="457"/>
+    <cellStyle name="一般 2 33" xfId="458"/>
+    <cellStyle name="一般 2 34" xfId="459"/>
+    <cellStyle name="一般 2 35" xfId="460"/>
+    <cellStyle name="一般 2 4" xfId="461"/>
+    <cellStyle name="一般 2 5" xfId="462"/>
+    <cellStyle name="一般 2 6" xfId="463"/>
+    <cellStyle name="一般 2 7" xfId="464"/>
+    <cellStyle name="一般 2 8" xfId="465"/>
+    <cellStyle name="一般 2 9" xfId="466"/>
+    <cellStyle name="一般 3" xfId="467"/>
+    <cellStyle name="一般 3 10" xfId="468"/>
+    <cellStyle name="一般 3 11" xfId="469"/>
+    <cellStyle name="一般 3 12" xfId="470"/>
+    <cellStyle name="一般 3 13" xfId="471"/>
+    <cellStyle name="一般 3 14" xfId="472"/>
+    <cellStyle name="一般 3 15" xfId="473"/>
+    <cellStyle name="一般 3 16" xfId="474"/>
+    <cellStyle name="一般 3 17" xfId="475"/>
+    <cellStyle name="一般 3 18" xfId="476"/>
+    <cellStyle name="一般 3 19" xfId="477"/>
+    <cellStyle name="一般 3 2" xfId="478"/>
+    <cellStyle name="一般 3 20" xfId="479"/>
+    <cellStyle name="一般 3 21" xfId="480"/>
+    <cellStyle name="一般 3 22" xfId="481"/>
+    <cellStyle name="一般 3 23" xfId="482"/>
+    <cellStyle name="一般 3 24" xfId="483"/>
+    <cellStyle name="一般 3 25" xfId="484"/>
+    <cellStyle name="一般 3 26" xfId="485"/>
+    <cellStyle name="一般 3 27" xfId="486"/>
+    <cellStyle name="一般 3 28" xfId="487"/>
+    <cellStyle name="一般 3 29" xfId="488"/>
+    <cellStyle name="一般 3 3" xfId="489"/>
+    <cellStyle name="一般 3 30" xfId="490"/>
+    <cellStyle name="一般 3 31" xfId="491"/>
+    <cellStyle name="一般 3 32" xfId="492"/>
+    <cellStyle name="一般 3 33" xfId="493"/>
+    <cellStyle name="一般 3 34" xfId="494"/>
+    <cellStyle name="一般 3 35" xfId="495"/>
+    <cellStyle name="一般 3 4" xfId="496"/>
+    <cellStyle name="一般 3 5" xfId="497"/>
+    <cellStyle name="一般 3 6" xfId="498"/>
+    <cellStyle name="一般 3 7" xfId="499"/>
+    <cellStyle name="一般 3 8" xfId="500"/>
+    <cellStyle name="一般 3 9" xfId="501"/>
+    <cellStyle name="一般 4" xfId="502"/>
+    <cellStyle name="一般 4 10" xfId="503"/>
+    <cellStyle name="一般 4 11" xfId="504"/>
+    <cellStyle name="一般 4 12" xfId="505"/>
+    <cellStyle name="一般 4 13" xfId="506"/>
+    <cellStyle name="一般 4 14" xfId="507"/>
+    <cellStyle name="一般 4 15" xfId="508"/>
+    <cellStyle name="一般 4 16" xfId="509"/>
+    <cellStyle name="一般 4 17" xfId="510"/>
+    <cellStyle name="一般 4 18" xfId="511"/>
+    <cellStyle name="一般 4 19" xfId="512"/>
+    <cellStyle name="一般 4 2" xfId="513"/>
+    <cellStyle name="一般 4 20" xfId="514"/>
+    <cellStyle name="一般 4 21" xfId="515"/>
+    <cellStyle name="一般 4 22" xfId="516"/>
+    <cellStyle name="一般 4 23" xfId="517"/>
+    <cellStyle name="一般 4 24" xfId="518"/>
+    <cellStyle name="一般 4 25" xfId="519"/>
+    <cellStyle name="一般 4 26" xfId="520"/>
+    <cellStyle name="一般 4 27" xfId="521"/>
+    <cellStyle name="一般 4 28" xfId="522"/>
+    <cellStyle name="一般 4 29" xfId="523"/>
+    <cellStyle name="一般 4 3" xfId="524"/>
+    <cellStyle name="一般 4 30" xfId="525"/>
+    <cellStyle name="一般 4 31" xfId="526"/>
+    <cellStyle name="一般 4 32" xfId="527"/>
+    <cellStyle name="一般 4 33" xfId="528"/>
+    <cellStyle name="一般 4 34" xfId="529"/>
+    <cellStyle name="一般 4 35" xfId="530"/>
+    <cellStyle name="一般 4 4" xfId="531"/>
+    <cellStyle name="一般 4 5" xfId="532"/>
+    <cellStyle name="一般 4 6" xfId="533"/>
+    <cellStyle name="一般 4 7" xfId="534"/>
+    <cellStyle name="一般 4 8" xfId="535"/>
+    <cellStyle name="一般 4 9" xfId="536"/>
+    <cellStyle name="一般 5" xfId="537"/>
+    <cellStyle name="一般 5 10" xfId="538"/>
+    <cellStyle name="一般 5 11" xfId="539"/>
+    <cellStyle name="一般 5 12" xfId="540"/>
+    <cellStyle name="一般 5 13" xfId="541"/>
+    <cellStyle name="一般 5 14" xfId="542"/>
+    <cellStyle name="一般 5 15" xfId="543"/>
+    <cellStyle name="一般 5 16" xfId="544"/>
+    <cellStyle name="一般 5 17" xfId="545"/>
+    <cellStyle name="一般 5 18" xfId="546"/>
+    <cellStyle name="一般 5 19" xfId="547"/>
+    <cellStyle name="一般 5 2" xfId="548"/>
+    <cellStyle name="一般 5 20" xfId="549"/>
+    <cellStyle name="一般 5 21" xfId="550"/>
+    <cellStyle name="一般 5 22" xfId="551"/>
+    <cellStyle name="一般 5 23" xfId="552"/>
+    <cellStyle name="一般 5 24" xfId="553"/>
+    <cellStyle name="一般 5 25" xfId="554"/>
+    <cellStyle name="一般 5 26" xfId="555"/>
+    <cellStyle name="一般 5 27" xfId="556"/>
+    <cellStyle name="一般 5 28" xfId="557"/>
+    <cellStyle name="一般 5 29" xfId="558"/>
+    <cellStyle name="一般 5 3" xfId="559"/>
+    <cellStyle name="一般 5 30" xfId="560"/>
+    <cellStyle name="一般 5 31" xfId="561"/>
+    <cellStyle name="一般 5 32" xfId="562"/>
+    <cellStyle name="一般 5 33" xfId="563"/>
+    <cellStyle name="一般 5 34" xfId="564"/>
+    <cellStyle name="一般 5 35" xfId="565"/>
+    <cellStyle name="一般 5 4" xfId="566"/>
+    <cellStyle name="一般 5 5" xfId="567"/>
+    <cellStyle name="一般 5 6" xfId="568"/>
+    <cellStyle name="一般 5 7" xfId="569"/>
+    <cellStyle name="一般 5 8" xfId="570"/>
+    <cellStyle name="一般 5 9" xfId="571"/>
+    <cellStyle name="单项" xfId="149"/>
+    <cellStyle name="单项 2" xfId="150"/>
+    <cellStyle name="单项 2 10" xfId="151"/>
+    <cellStyle name="单项 2 11" xfId="152"/>
+    <cellStyle name="单项 2 12" xfId="153"/>
+    <cellStyle name="单项 2 13" xfId="154"/>
+    <cellStyle name="单项 2 14" xfId="155"/>
+    <cellStyle name="单项 2 15" xfId="156"/>
+    <cellStyle name="单项 2 16" xfId="157"/>
+    <cellStyle name="单项 2 17" xfId="158"/>
+    <cellStyle name="单项 2 18" xfId="159"/>
+    <cellStyle name="单项 2 19" xfId="160"/>
+    <cellStyle name="单项 2 2" xfId="161"/>
+    <cellStyle name="单项 2 20" xfId="162"/>
+    <cellStyle name="单项 2 21" xfId="163"/>
+    <cellStyle name="单项 2 22" xfId="164"/>
+    <cellStyle name="单项 2 23" xfId="165"/>
+    <cellStyle name="单项 2 24" xfId="166"/>
+    <cellStyle name="单项 2 25" xfId="167"/>
+    <cellStyle name="单项 2 26" xfId="168"/>
+    <cellStyle name="单项 2 27" xfId="169"/>
+    <cellStyle name="单项 2 28" xfId="170"/>
+    <cellStyle name="单项 2 29" xfId="171"/>
+    <cellStyle name="单项 2 3" xfId="172"/>
+    <cellStyle name="单项 2 30" xfId="173"/>
+    <cellStyle name="单项 2 31" xfId="174"/>
+    <cellStyle name="单项 2 32" xfId="175"/>
+    <cellStyle name="单项 2 33" xfId="176"/>
+    <cellStyle name="单项 2 34" xfId="177"/>
+    <cellStyle name="单项 2 35" xfId="178"/>
+    <cellStyle name="单项 2 4" xfId="179"/>
+    <cellStyle name="单项 2 5" xfId="180"/>
+    <cellStyle name="单项 2 6" xfId="181"/>
+    <cellStyle name="单项 2 7" xfId="182"/>
+    <cellStyle name="单项 2 8" xfId="183"/>
+    <cellStyle name="单项 2 9" xfId="184"/>
+    <cellStyle name="单项 3" xfId="185"/>
+    <cellStyle name="单项 3 10" xfId="186"/>
+    <cellStyle name="单项 3 11" xfId="187"/>
+    <cellStyle name="单项 3 12" xfId="188"/>
+    <cellStyle name="单项 3 13" xfId="189"/>
+    <cellStyle name="单项 3 14" xfId="190"/>
+    <cellStyle name="单项 3 15" xfId="191"/>
+    <cellStyle name="单项 3 16" xfId="192"/>
+    <cellStyle name="单项 3 17" xfId="193"/>
+    <cellStyle name="单项 3 18" xfId="194"/>
+    <cellStyle name="单项 3 19" xfId="195"/>
+    <cellStyle name="单项 3 2" xfId="196"/>
+    <cellStyle name="单项 3 20" xfId="197"/>
+    <cellStyle name="单项 3 21" xfId="198"/>
+    <cellStyle name="单项 3 22" xfId="199"/>
+    <cellStyle name="单项 3 23" xfId="200"/>
+    <cellStyle name="单项 3 24" xfId="201"/>
+    <cellStyle name="单项 3 25" xfId="202"/>
+    <cellStyle name="单项 3 26" xfId="203"/>
+    <cellStyle name="单项 3 27" xfId="204"/>
+    <cellStyle name="单项 3 28" xfId="205"/>
+    <cellStyle name="单项 3 29" xfId="206"/>
+    <cellStyle name="单项 3 3" xfId="207"/>
+    <cellStyle name="单项 3 30" xfId="208"/>
+    <cellStyle name="单项 3 31" xfId="209"/>
+    <cellStyle name="单项 3 32" xfId="210"/>
+    <cellStyle name="单项 3 33" xfId="211"/>
+    <cellStyle name="单项 3 34" xfId="212"/>
+    <cellStyle name="单项 3 35" xfId="213"/>
+    <cellStyle name="单项 3 4" xfId="214"/>
+    <cellStyle name="单项 3 5" xfId="215"/>
+    <cellStyle name="单项 3 6" xfId="216"/>
+    <cellStyle name="单项 3 7" xfId="217"/>
+    <cellStyle name="单项 3 8" xfId="218"/>
+    <cellStyle name="单项 3 9" xfId="219"/>
+    <cellStyle name="单项 4" xfId="220"/>
+    <cellStyle name="单项 4 10" xfId="221"/>
+    <cellStyle name="单项 4 11" xfId="222"/>
+    <cellStyle name="单项 4 12" xfId="223"/>
+    <cellStyle name="单项 4 13" xfId="224"/>
+    <cellStyle name="单项 4 14" xfId="225"/>
+    <cellStyle name="单项 4 15" xfId="226"/>
+    <cellStyle name="单项 4 16" xfId="227"/>
+    <cellStyle name="单项 4 17" xfId="228"/>
+    <cellStyle name="单项 4 18" xfId="229"/>
+    <cellStyle name="单项 4 19" xfId="230"/>
+    <cellStyle name="单项 4 2" xfId="231"/>
+    <cellStyle name="单项 4 20" xfId="232"/>
+    <cellStyle name="单项 4 21" xfId="233"/>
+    <cellStyle name="单项 4 22" xfId="234"/>
+    <cellStyle name="单项 4 23" xfId="235"/>
+    <cellStyle name="单项 4 24" xfId="236"/>
+    <cellStyle name="单项 4 25" xfId="237"/>
+    <cellStyle name="单项 4 26" xfId="238"/>
+    <cellStyle name="单项 4 27" xfId="239"/>
+    <cellStyle name="单项 4 28" xfId="240"/>
+    <cellStyle name="单项 4 29" xfId="241"/>
+    <cellStyle name="单项 4 3" xfId="242"/>
+    <cellStyle name="单项 4 30" xfId="243"/>
+    <cellStyle name="单项 4 31" xfId="244"/>
+    <cellStyle name="单项 4 32" xfId="245"/>
+    <cellStyle name="单项 4 33" xfId="246"/>
+    <cellStyle name="单项 4 34" xfId="247"/>
+    <cellStyle name="单项 4 35" xfId="248"/>
+    <cellStyle name="单项 4 4" xfId="249"/>
+    <cellStyle name="单项 4 5" xfId="250"/>
+    <cellStyle name="单项 4 6" xfId="251"/>
+    <cellStyle name="单项 4 7" xfId="252"/>
+    <cellStyle name="单项 4 8" xfId="253"/>
+    <cellStyle name="单项 4 9" xfId="254"/>
+    <cellStyle name="单项 5" xfId="255"/>
+    <cellStyle name="单项 5 10" xfId="256"/>
+    <cellStyle name="单项 5 11" xfId="257"/>
+    <cellStyle name="单项 5 12" xfId="258"/>
+    <cellStyle name="单项 5 13" xfId="259"/>
+    <cellStyle name="单项 5 14" xfId="260"/>
+    <cellStyle name="单项 5 15" xfId="261"/>
+    <cellStyle name="单项 5 16" xfId="262"/>
+    <cellStyle name="单项 5 17" xfId="263"/>
+    <cellStyle name="单项 5 18" xfId="264"/>
+    <cellStyle name="单项 5 19" xfId="265"/>
+    <cellStyle name="单项 5 2" xfId="266"/>
+    <cellStyle name="单项 5 20" xfId="267"/>
+    <cellStyle name="单项 5 21" xfId="268"/>
+    <cellStyle name="单项 5 22" xfId="269"/>
+    <cellStyle name="单项 5 23" xfId="270"/>
+    <cellStyle name="单项 5 24" xfId="271"/>
+    <cellStyle name="单项 5 25" xfId="272"/>
+    <cellStyle name="单项 5 26" xfId="273"/>
+    <cellStyle name="单项 5 27" xfId="274"/>
+    <cellStyle name="单项 5 28" xfId="275"/>
+    <cellStyle name="单项 5 29" xfId="276"/>
+    <cellStyle name="单项 5 3" xfId="277"/>
+    <cellStyle name="单项 5 30" xfId="278"/>
+    <cellStyle name="单项 5 31" xfId="279"/>
+    <cellStyle name="单项 5 32" xfId="280"/>
+    <cellStyle name="单项 5 33" xfId="281"/>
+    <cellStyle name="单项 5 34" xfId="282"/>
+    <cellStyle name="单项 5 35" xfId="283"/>
+    <cellStyle name="单项 5 4" xfId="284"/>
+    <cellStyle name="单项 5 5" xfId="285"/>
+    <cellStyle name="单项 5 6" xfId="286"/>
+    <cellStyle name="单项 5 7" xfId="287"/>
+    <cellStyle name="单项 5 8" xfId="288"/>
+    <cellStyle name="单项 5 9" xfId="289"/>
     <cellStyle name="常规 10" xfId="2"/>
     <cellStyle name="常规 11" xfId="3"/>
     <cellStyle name="常规 14" xfId="4"/>
@@ -5749,147 +6077,6 @@
     <cellStyle name="超链接 5 7" xfId="146"/>
     <cellStyle name="超链接 5 8" xfId="147"/>
     <cellStyle name="超链接 5 9" xfId="148"/>
-    <cellStyle name="单项" xfId="149"/>
-    <cellStyle name="单项 2" xfId="150"/>
-    <cellStyle name="单项 2 10" xfId="151"/>
-    <cellStyle name="单项 2 11" xfId="152"/>
-    <cellStyle name="单项 2 12" xfId="153"/>
-    <cellStyle name="单项 2 13" xfId="154"/>
-    <cellStyle name="单项 2 14" xfId="155"/>
-    <cellStyle name="单项 2 15" xfId="156"/>
-    <cellStyle name="单项 2 16" xfId="157"/>
-    <cellStyle name="单项 2 17" xfId="158"/>
-    <cellStyle name="单项 2 18" xfId="159"/>
-    <cellStyle name="单项 2 19" xfId="160"/>
-    <cellStyle name="单项 2 2" xfId="161"/>
-    <cellStyle name="单项 2 20" xfId="162"/>
-    <cellStyle name="单项 2 21" xfId="163"/>
-    <cellStyle name="单项 2 22" xfId="164"/>
-    <cellStyle name="单项 2 23" xfId="165"/>
-    <cellStyle name="单项 2 24" xfId="166"/>
-    <cellStyle name="单项 2 25" xfId="167"/>
-    <cellStyle name="单项 2 26" xfId="168"/>
-    <cellStyle name="单项 2 27" xfId="169"/>
-    <cellStyle name="单项 2 28" xfId="170"/>
-    <cellStyle name="单项 2 29" xfId="171"/>
-    <cellStyle name="单项 2 3" xfId="172"/>
-    <cellStyle name="单项 2 30" xfId="173"/>
-    <cellStyle name="单项 2 31" xfId="174"/>
-    <cellStyle name="单项 2 32" xfId="175"/>
-    <cellStyle name="单项 2 33" xfId="176"/>
-    <cellStyle name="单项 2 34" xfId="177"/>
-    <cellStyle name="单项 2 35" xfId="178"/>
-    <cellStyle name="单项 2 4" xfId="179"/>
-    <cellStyle name="单项 2 5" xfId="180"/>
-    <cellStyle name="单项 2 6" xfId="181"/>
-    <cellStyle name="单项 2 7" xfId="182"/>
-    <cellStyle name="单项 2 8" xfId="183"/>
-    <cellStyle name="单项 2 9" xfId="184"/>
-    <cellStyle name="单项 3" xfId="185"/>
-    <cellStyle name="单项 3 10" xfId="186"/>
-    <cellStyle name="单项 3 11" xfId="187"/>
-    <cellStyle name="单项 3 12" xfId="188"/>
-    <cellStyle name="单项 3 13" xfId="189"/>
-    <cellStyle name="单项 3 14" xfId="190"/>
-    <cellStyle name="单项 3 15" xfId="191"/>
-    <cellStyle name="单项 3 16" xfId="192"/>
-    <cellStyle name="单项 3 17" xfId="193"/>
-    <cellStyle name="单项 3 18" xfId="194"/>
-    <cellStyle name="单项 3 19" xfId="195"/>
-    <cellStyle name="单项 3 2" xfId="196"/>
-    <cellStyle name="单项 3 20" xfId="197"/>
-    <cellStyle name="单项 3 21" xfId="198"/>
-    <cellStyle name="单项 3 22" xfId="199"/>
-    <cellStyle name="单项 3 23" xfId="200"/>
-    <cellStyle name="单项 3 24" xfId="201"/>
-    <cellStyle name="单项 3 25" xfId="202"/>
-    <cellStyle name="单项 3 26" xfId="203"/>
-    <cellStyle name="单项 3 27" xfId="204"/>
-    <cellStyle name="单项 3 28" xfId="205"/>
-    <cellStyle name="单项 3 29" xfId="206"/>
-    <cellStyle name="单项 3 3" xfId="207"/>
-    <cellStyle name="单项 3 30" xfId="208"/>
-    <cellStyle name="单项 3 31" xfId="209"/>
-    <cellStyle name="单项 3 32" xfId="210"/>
-    <cellStyle name="单项 3 33" xfId="211"/>
-    <cellStyle name="单项 3 34" xfId="212"/>
-    <cellStyle name="单项 3 35" xfId="213"/>
-    <cellStyle name="单项 3 4" xfId="214"/>
-    <cellStyle name="单项 3 5" xfId="215"/>
-    <cellStyle name="单项 3 6" xfId="216"/>
-    <cellStyle name="单项 3 7" xfId="217"/>
-    <cellStyle name="单项 3 8" xfId="218"/>
-    <cellStyle name="单项 3 9" xfId="219"/>
-    <cellStyle name="单项 4" xfId="220"/>
-    <cellStyle name="单项 4 10" xfId="221"/>
-    <cellStyle name="单项 4 11" xfId="222"/>
-    <cellStyle name="单项 4 12" xfId="223"/>
-    <cellStyle name="单项 4 13" xfId="224"/>
-    <cellStyle name="单项 4 14" xfId="225"/>
-    <cellStyle name="单项 4 15" xfId="226"/>
-    <cellStyle name="单项 4 16" xfId="227"/>
-    <cellStyle name="单项 4 17" xfId="228"/>
-    <cellStyle name="单项 4 18" xfId="229"/>
-    <cellStyle name="单项 4 19" xfId="230"/>
-    <cellStyle name="单项 4 2" xfId="231"/>
-    <cellStyle name="单项 4 20" xfId="232"/>
-    <cellStyle name="单项 4 21" xfId="233"/>
-    <cellStyle name="单项 4 22" xfId="234"/>
-    <cellStyle name="单项 4 23" xfId="235"/>
-    <cellStyle name="单项 4 24" xfId="236"/>
-    <cellStyle name="单项 4 25" xfId="237"/>
-    <cellStyle name="单项 4 26" xfId="238"/>
-    <cellStyle name="单项 4 27" xfId="239"/>
-    <cellStyle name="单项 4 28" xfId="240"/>
-    <cellStyle name="单项 4 29" xfId="241"/>
-    <cellStyle name="单项 4 3" xfId="242"/>
-    <cellStyle name="单项 4 30" xfId="243"/>
-    <cellStyle name="单项 4 31" xfId="244"/>
-    <cellStyle name="单项 4 32" xfId="245"/>
-    <cellStyle name="单项 4 33" xfId="246"/>
-    <cellStyle name="单项 4 34" xfId="247"/>
-    <cellStyle name="单项 4 35" xfId="248"/>
-    <cellStyle name="单项 4 4" xfId="249"/>
-    <cellStyle name="单项 4 5" xfId="250"/>
-    <cellStyle name="单项 4 6" xfId="251"/>
-    <cellStyle name="单项 4 7" xfId="252"/>
-    <cellStyle name="单项 4 8" xfId="253"/>
-    <cellStyle name="单项 4 9" xfId="254"/>
-    <cellStyle name="单项 5" xfId="255"/>
-    <cellStyle name="单项 5 10" xfId="256"/>
-    <cellStyle name="单项 5 11" xfId="257"/>
-    <cellStyle name="单项 5 12" xfId="258"/>
-    <cellStyle name="单项 5 13" xfId="259"/>
-    <cellStyle name="单项 5 14" xfId="260"/>
-    <cellStyle name="单项 5 15" xfId="261"/>
-    <cellStyle name="单项 5 16" xfId="262"/>
-    <cellStyle name="单项 5 17" xfId="263"/>
-    <cellStyle name="单项 5 18" xfId="264"/>
-    <cellStyle name="单项 5 19" xfId="265"/>
-    <cellStyle name="单项 5 2" xfId="266"/>
-    <cellStyle name="单项 5 20" xfId="267"/>
-    <cellStyle name="单项 5 21" xfId="268"/>
-    <cellStyle name="单项 5 22" xfId="269"/>
-    <cellStyle name="单项 5 23" xfId="270"/>
-    <cellStyle name="单项 5 24" xfId="271"/>
-    <cellStyle name="单项 5 25" xfId="272"/>
-    <cellStyle name="单项 5 26" xfId="273"/>
-    <cellStyle name="单项 5 27" xfId="274"/>
-    <cellStyle name="单项 5 28" xfId="275"/>
-    <cellStyle name="单项 5 29" xfId="276"/>
-    <cellStyle name="单项 5 3" xfId="277"/>
-    <cellStyle name="单项 5 30" xfId="278"/>
-    <cellStyle name="单项 5 31" xfId="279"/>
-    <cellStyle name="单项 5 32" xfId="280"/>
-    <cellStyle name="单项 5 33" xfId="281"/>
-    <cellStyle name="单项 5 34" xfId="282"/>
-    <cellStyle name="单项 5 35" xfId="283"/>
-    <cellStyle name="单项 5 4" xfId="284"/>
-    <cellStyle name="单项 5 5" xfId="285"/>
-    <cellStyle name="单项 5 6" xfId="286"/>
-    <cellStyle name="单项 5 7" xfId="287"/>
-    <cellStyle name="单项 5 8" xfId="288"/>
-    <cellStyle name="单项 5 9" xfId="289"/>
     <cellStyle name="非标" xfId="290"/>
     <cellStyle name="非标 2" xfId="291"/>
     <cellStyle name="非标 2 10" xfId="292"/>
@@ -6031,147 +6218,6 @@
     <cellStyle name="非标 5 7" xfId="428"/>
     <cellStyle name="非标 5 8" xfId="429"/>
     <cellStyle name="非标 5 9" xfId="430"/>
-    <cellStyle name="一般" xfId="431"/>
-    <cellStyle name="一般 2" xfId="432"/>
-    <cellStyle name="一般 2 10" xfId="433"/>
-    <cellStyle name="一般 2 11" xfId="434"/>
-    <cellStyle name="一般 2 12" xfId="435"/>
-    <cellStyle name="一般 2 13" xfId="436"/>
-    <cellStyle name="一般 2 14" xfId="437"/>
-    <cellStyle name="一般 2 15" xfId="438"/>
-    <cellStyle name="一般 2 16" xfId="439"/>
-    <cellStyle name="一般 2 17" xfId="440"/>
-    <cellStyle name="一般 2 18" xfId="441"/>
-    <cellStyle name="一般 2 19" xfId="442"/>
-    <cellStyle name="一般 2 2" xfId="443"/>
-    <cellStyle name="一般 2 20" xfId="444"/>
-    <cellStyle name="一般 2 21" xfId="445"/>
-    <cellStyle name="一般 2 22" xfId="446"/>
-    <cellStyle name="一般 2 23" xfId="447"/>
-    <cellStyle name="一般 2 24" xfId="448"/>
-    <cellStyle name="一般 2 25" xfId="449"/>
-    <cellStyle name="一般 2 26" xfId="450"/>
-    <cellStyle name="一般 2 27" xfId="451"/>
-    <cellStyle name="一般 2 28" xfId="452"/>
-    <cellStyle name="一般 2 29" xfId="453"/>
-    <cellStyle name="一般 2 3" xfId="454"/>
-    <cellStyle name="一般 2 30" xfId="455"/>
-    <cellStyle name="一般 2 31" xfId="456"/>
-    <cellStyle name="一般 2 32" xfId="457"/>
-    <cellStyle name="一般 2 33" xfId="458"/>
-    <cellStyle name="一般 2 34" xfId="459"/>
-    <cellStyle name="一般 2 35" xfId="460"/>
-    <cellStyle name="一般 2 4" xfId="461"/>
-    <cellStyle name="一般 2 5" xfId="462"/>
-    <cellStyle name="一般 2 6" xfId="463"/>
-    <cellStyle name="一般 2 7" xfId="464"/>
-    <cellStyle name="一般 2 8" xfId="465"/>
-    <cellStyle name="一般 2 9" xfId="466"/>
-    <cellStyle name="一般 3" xfId="467"/>
-    <cellStyle name="一般 3 10" xfId="468"/>
-    <cellStyle name="一般 3 11" xfId="469"/>
-    <cellStyle name="一般 3 12" xfId="470"/>
-    <cellStyle name="一般 3 13" xfId="471"/>
-    <cellStyle name="一般 3 14" xfId="472"/>
-    <cellStyle name="一般 3 15" xfId="473"/>
-    <cellStyle name="一般 3 16" xfId="474"/>
-    <cellStyle name="一般 3 17" xfId="475"/>
-    <cellStyle name="一般 3 18" xfId="476"/>
-    <cellStyle name="一般 3 19" xfId="477"/>
-    <cellStyle name="一般 3 2" xfId="478"/>
-    <cellStyle name="一般 3 20" xfId="479"/>
-    <cellStyle name="一般 3 21" xfId="480"/>
-    <cellStyle name="一般 3 22" xfId="481"/>
-    <cellStyle name="一般 3 23" xfId="482"/>
-    <cellStyle name="一般 3 24" xfId="483"/>
-    <cellStyle name="一般 3 25" xfId="484"/>
-    <cellStyle name="一般 3 26" xfId="485"/>
-    <cellStyle name="一般 3 27" xfId="486"/>
-    <cellStyle name="一般 3 28" xfId="487"/>
-    <cellStyle name="一般 3 29" xfId="488"/>
-    <cellStyle name="一般 3 3" xfId="489"/>
-    <cellStyle name="一般 3 30" xfId="490"/>
-    <cellStyle name="一般 3 31" xfId="491"/>
-    <cellStyle name="一般 3 32" xfId="492"/>
-    <cellStyle name="一般 3 33" xfId="493"/>
-    <cellStyle name="一般 3 34" xfId="494"/>
-    <cellStyle name="一般 3 35" xfId="495"/>
-    <cellStyle name="一般 3 4" xfId="496"/>
-    <cellStyle name="一般 3 5" xfId="497"/>
-    <cellStyle name="一般 3 6" xfId="498"/>
-    <cellStyle name="一般 3 7" xfId="499"/>
-    <cellStyle name="一般 3 8" xfId="500"/>
-    <cellStyle name="一般 3 9" xfId="501"/>
-    <cellStyle name="一般 4" xfId="502"/>
-    <cellStyle name="一般 4 10" xfId="503"/>
-    <cellStyle name="一般 4 11" xfId="504"/>
-    <cellStyle name="一般 4 12" xfId="505"/>
-    <cellStyle name="一般 4 13" xfId="506"/>
-    <cellStyle name="一般 4 14" xfId="507"/>
-    <cellStyle name="一般 4 15" xfId="508"/>
-    <cellStyle name="一般 4 16" xfId="509"/>
-    <cellStyle name="一般 4 17" xfId="510"/>
-    <cellStyle name="一般 4 18" xfId="511"/>
-    <cellStyle name="一般 4 19" xfId="512"/>
-    <cellStyle name="一般 4 2" xfId="513"/>
-    <cellStyle name="一般 4 20" xfId="514"/>
-    <cellStyle name="一般 4 21" xfId="515"/>
-    <cellStyle name="一般 4 22" xfId="516"/>
-    <cellStyle name="一般 4 23" xfId="517"/>
-    <cellStyle name="一般 4 24" xfId="518"/>
-    <cellStyle name="一般 4 25" xfId="519"/>
-    <cellStyle name="一般 4 26" xfId="520"/>
-    <cellStyle name="一般 4 27" xfId="521"/>
-    <cellStyle name="一般 4 28" xfId="522"/>
-    <cellStyle name="一般 4 29" xfId="523"/>
-    <cellStyle name="一般 4 3" xfId="524"/>
-    <cellStyle name="一般 4 30" xfId="525"/>
-    <cellStyle name="一般 4 31" xfId="526"/>
-    <cellStyle name="一般 4 32" xfId="527"/>
-    <cellStyle name="一般 4 33" xfId="528"/>
-    <cellStyle name="一般 4 34" xfId="529"/>
-    <cellStyle name="一般 4 35" xfId="530"/>
-    <cellStyle name="一般 4 4" xfId="531"/>
-    <cellStyle name="一般 4 5" xfId="532"/>
-    <cellStyle name="一般 4 6" xfId="533"/>
-    <cellStyle name="一般 4 7" xfId="534"/>
-    <cellStyle name="一般 4 8" xfId="535"/>
-    <cellStyle name="一般 4 9" xfId="536"/>
-    <cellStyle name="一般 5" xfId="537"/>
-    <cellStyle name="一般 5 10" xfId="538"/>
-    <cellStyle name="一般 5 11" xfId="539"/>
-    <cellStyle name="一般 5 12" xfId="540"/>
-    <cellStyle name="一般 5 13" xfId="541"/>
-    <cellStyle name="一般 5 14" xfId="542"/>
-    <cellStyle name="一般 5 15" xfId="543"/>
-    <cellStyle name="一般 5 16" xfId="544"/>
-    <cellStyle name="一般 5 17" xfId="545"/>
-    <cellStyle name="一般 5 18" xfId="546"/>
-    <cellStyle name="一般 5 19" xfId="547"/>
-    <cellStyle name="一般 5 2" xfId="548"/>
-    <cellStyle name="一般 5 20" xfId="549"/>
-    <cellStyle name="一般 5 21" xfId="550"/>
-    <cellStyle name="一般 5 22" xfId="551"/>
-    <cellStyle name="一般 5 23" xfId="552"/>
-    <cellStyle name="一般 5 24" xfId="553"/>
-    <cellStyle name="一般 5 25" xfId="554"/>
-    <cellStyle name="一般 5 26" xfId="555"/>
-    <cellStyle name="一般 5 27" xfId="556"/>
-    <cellStyle name="一般 5 28" xfId="557"/>
-    <cellStyle name="一般 5 29" xfId="558"/>
-    <cellStyle name="一般 5 3" xfId="559"/>
-    <cellStyle name="一般 5 30" xfId="560"/>
-    <cellStyle name="一般 5 31" xfId="561"/>
-    <cellStyle name="一般 5 32" xfId="562"/>
-    <cellStyle name="一般 5 33" xfId="563"/>
-    <cellStyle name="一般 5 34" xfId="564"/>
-    <cellStyle name="一般 5 35" xfId="565"/>
-    <cellStyle name="一般 5 4" xfId="566"/>
-    <cellStyle name="一般 5 5" xfId="567"/>
-    <cellStyle name="一般 5 6" xfId="568"/>
-    <cellStyle name="一般 5 7" xfId="569"/>
-    <cellStyle name="一般 5 8" xfId="570"/>
-    <cellStyle name="一般 5 9" xfId="571"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6191,26 +6237,16 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="估算表"/>
-      <sheetName val="设备表"/>
-      <sheetName val="主要设备购置"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>项目名称：</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6255,9 +6291,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -6290,9 +6326,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -6498,30 +6534,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="33" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="6" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="22.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="22.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="22.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" s="20" t="s">
         <v>30</v>
       </c>
@@ -6537,7 +6573,7 @@
       <c r="L1" s="21"/>
       <c r="M1" s="20"/>
     </row>
-    <row r="2" spans="1:23" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
         <v>29</v>
       </c>
@@ -6571,7 +6607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" s="10" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
@@ -6612,7 +6648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
@@ -6650,7 +6686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -6698,7 +6734,7 @@
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
     </row>
-    <row r="7" spans="1:23" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>43</v>
       </c>
@@ -6746,7 +6782,7 @@
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
@@ -6784,7 +6820,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" s="9" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -6822,7 +6858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>49</v>
       </c>
@@ -6860,7 +6896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>49</v>
       </c>
@@ -6898,7 +6934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
@@ -6936,7 +6972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
@@ -6974,7 +7010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
@@ -7014,7 +7050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
@@ -7054,7 +7090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
@@ -7094,7 +7130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
@@ -7134,7 +7170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
@@ -7174,7 +7210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>49</v>
       </c>
@@ -7214,7 +7250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>31</v>
       </c>
@@ -7254,7 +7290,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
@@ -7294,7 +7330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
@@ -7334,7 +7370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>49</v>
       </c>
@@ -7374,7 +7410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>106</v>
       </c>
@@ -7414,7 +7450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
@@ -7454,7 +7490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -7494,7 +7530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>43</v>
       </c>
@@ -7532,7 +7568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
@@ -7570,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>49</v>
       </c>
@@ -7608,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>106</v>
       </c>
@@ -7644,7 +7680,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>31</v>
       </c>
@@ -7680,7 +7716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>43</v>
       </c>
@@ -7716,7 +7752,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>49</v>
       </c>
@@ -7752,7 +7788,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
@@ -7788,7 +7824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>49</v>
       </c>
@@ -7824,7 +7860,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>49</v>
       </c>
@@ -7860,7 +7896,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>31</v>
       </c>
@@ -7896,7 +7932,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>49</v>
       </c>
@@ -7932,7 +7968,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>49</v>
       </c>
@@ -7968,7 +8004,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>49</v>
       </c>
@@ -8004,7 +8040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>43</v>
       </c>
@@ -8040,7 +8076,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>49</v>
       </c>
@@ -8076,7 +8112,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>155</v>
       </c>
@@ -8116,7 +8152,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>160</v>
       </c>
@@ -8156,7 +8192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>160</v>
       </c>
@@ -8196,7 +8232,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>160</v>
       </c>
@@ -8236,7 +8272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>160</v>
       </c>
@@ -8276,7 +8312,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>160</v>
       </c>
@@ -8316,7 +8352,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>160</v>
       </c>
@@ -8356,7 +8392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>160</v>
       </c>
@@ -8396,7 +8432,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>160</v>
       </c>
@@ -8436,7 +8472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>160</v>
       </c>
@@ -8476,7 +8512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>196</v>
       </c>
@@ -8516,7 +8552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>160</v>
       </c>
@@ -8556,7 +8592,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>160</v>
       </c>
@@ -8596,7 +8632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>160</v>
       </c>
@@ -8636,7 +8672,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>160</v>
       </c>
@@ -8676,7 +8712,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>160</v>
       </c>
@@ -8716,7 +8752,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>160</v>
       </c>
@@ -8754,7 +8790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>160</v>
       </c>
@@ -8794,7 +8830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>160</v>
       </c>
@@ -8834,7 +8870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>160</v>
       </c>
@@ -8874,7 +8910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>160</v>
       </c>
@@ -8914,7 +8950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>160</v>
       </c>
@@ -8954,7 +8990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>160</v>
       </c>
@@ -8994,7 +9030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>160</v>
       </c>
@@ -9034,7 +9070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>160</v>
       </c>
@@ -9074,7 +9110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>160</v>
       </c>
@@ -9114,7 +9150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>160</v>
       </c>
@@ -9154,7 +9190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>160</v>
       </c>
@@ -9194,7 +9230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" ht="56" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>160</v>
       </c>
@@ -9234,7 +9270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>160</v>
       </c>
@@ -9274,7 +9310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>160</v>
       </c>
@@ -9314,7 +9350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>160</v>
       </c>
@@ -9354,7 +9390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>33</v>
       </c>
@@ -9394,7 +9430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>160</v>
       </c>
@@ -9434,7 +9470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>160</v>
       </c>
@@ -9474,7 +9510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>160</v>
       </c>
@@ -9512,7 +9548,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>160</v>
       </c>
@@ -9550,7 +9586,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>160</v>
       </c>
@@ -9588,7 +9624,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>160</v>
       </c>
@@ -9624,7 +9660,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>33</v>
       </c>
@@ -9662,7 +9698,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>160</v>
       </c>
@@ -9700,7 +9736,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>160</v>
       </c>
@@ -9738,7 +9774,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>160</v>
       </c>
@@ -9776,7 +9812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>160</v>
       </c>
@@ -9812,7 +9848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>160</v>
       </c>
@@ -9850,7 +9886,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>160</v>
       </c>
@@ -9888,7 +9924,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>160</v>
       </c>
@@ -9926,7 +9962,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>160</v>
       </c>
@@ -9964,7 +10000,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>160</v>
       </c>
@@ -10002,7 +10038,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>160</v>
       </c>
@@ -10040,7 +10076,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>160</v>
       </c>
@@ -10078,7 +10114,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>160</v>
       </c>
@@ -10116,7 +10152,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>160</v>
       </c>
@@ -10154,7 +10190,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>160</v>
       </c>
@@ -10192,7 +10228,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>160</v>
       </c>
@@ -10230,7 +10266,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>160</v>
       </c>
@@ -10268,7 +10304,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>357</v>
       </c>
@@ -10308,7 +10344,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>357</v>
       </c>
@@ -10348,7 +10384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>357</v>
       </c>
@@ -10388,7 +10424,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13" ht="56" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>357</v>
       </c>
@@ -10428,7 +10464,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>357</v>
       </c>
@@ -10468,7 +10504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>357</v>
       </c>
@@ -10508,7 +10544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>357</v>
       </c>
@@ -10548,7 +10584,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13" ht="56" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>357</v>
       </c>
@@ -10588,7 +10624,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>357</v>
       </c>
@@ -10628,7 +10664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>357</v>
       </c>
@@ -10668,7 +10704,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>357</v>
       </c>
@@ -10708,7 +10744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>357</v>
       </c>
@@ -10748,7 +10784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>357</v>
       </c>
@@ -10756,16 +10792,16 @@
         <v>107</v>
       </c>
       <c r="C111" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="E111" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="F111" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>406</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>119</v>
@@ -10788,7 +10824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13" ht="70" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>357</v>
       </c>
@@ -10796,16 +10832,16 @@
         <v>108</v>
       </c>
       <c r="C112" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D112" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="E112" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="F112" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>119</v>
@@ -10825,10 +10861,10 @@
       </c>
       <c r="L112" s="8"/>
       <c r="M112" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="70" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>357</v>
       </c>
@@ -10836,16 +10872,16 @@
         <v>109</v>
       </c>
       <c r="C113" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="E113" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="E113" s="8" t="s">
-        <v>414</v>
-      </c>
       <c r="F113" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G113" s="8" t="s">
         <v>119</v>
@@ -10866,10 +10902,10 @@
       </c>
       <c r="L113" s="8"/>
       <c r="M113" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="60" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="98" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>357</v>
       </c>
@@ -10877,16 +10913,16 @@
         <v>110</v>
       </c>
       <c r="C114" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="E114" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="E114" s="8" t="s">
-        <v>417</v>
-      </c>
       <c r="F114" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>119</v>
@@ -10909,7 +10945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:13" ht="98" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>357</v>
       </c>
@@ -10917,16 +10953,16 @@
         <v>111</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D115" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="F115" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>421</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>119</v>
@@ -10949,7 +10985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>357</v>
       </c>
@@ -10957,16 +10993,16 @@
         <v>112</v>
       </c>
       <c r="C116" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="E116" s="8" t="s">
-        <v>424</v>
-      </c>
       <c r="F116" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>119</v>
@@ -10989,24 +11025,24 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:13" ht="56" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B117" s="8">
         <v>113</v>
       </c>
       <c r="C117" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="F117" s="8" t="s">
         <v>428</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>429</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>75</v>
@@ -11030,7 +11066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>357</v>
       </c>
@@ -11038,16 +11074,16 @@
         <v>114</v>
       </c>
       <c r="C118" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="E118" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="F118" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>433</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>75</v>
@@ -11070,7 +11106,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>357</v>
       </c>
@@ -11078,16 +11114,16 @@
         <v>115</v>
       </c>
       <c r="C119" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="E119" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="F119" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>119</v>
@@ -11110,7 +11146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>357</v>
       </c>
@@ -11118,16 +11154,16 @@
         <v>116</v>
       </c>
       <c r="C120" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D120" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="E120" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="F120" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>119</v>
@@ -11147,10 +11183,10 @@
       </c>
       <c r="L120" s="8"/>
       <c r="M120" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="72" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="84" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>357</v>
       </c>
@@ -11158,16 +11194,16 @@
         <v>117</v>
       </c>
       <c r="C121" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D121" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="E121" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="F121" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G121" s="8" t="s">
         <v>119</v>
@@ -11190,7 +11226,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="60" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:13" ht="70" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>357</v>
       </c>
@@ -11198,16 +11234,16 @@
         <v>118</v>
       </c>
       <c r="C122" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="E122" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="F122" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>119</v>
@@ -11230,7 +11266,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:13" ht="29" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>357</v>
       </c>
@@ -11238,16 +11274,16 @@
         <v>119</v>
       </c>
       <c r="C123" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="E123" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="F123" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>119</v>
@@ -11270,7 +11306,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>357</v>
       </c>
@@ -11278,16 +11314,16 @@
         <v>120</v>
       </c>
       <c r="C124" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="E124" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="E124" s="8" t="s">
-        <v>456</v>
-      </c>
       <c r="F124" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>119</v>
@@ -11310,7 +11346,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="38.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:13" ht="58" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>357</v>
       </c>
@@ -11318,16 +11354,16 @@
         <v>121</v>
       </c>
       <c r="C125" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D125" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="E125" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="F125" s="8" t="s">
         <v>459</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>460</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>119</v>
@@ -11350,7 +11386,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>357</v>
       </c>
@@ -11358,16 +11394,16 @@
         <v>122</v>
       </c>
       <c r="C126" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="E126" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="F126" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>464</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>119</v>
@@ -11390,24 +11426,24 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:13" ht="41" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B127" s="8">
         <v>123</v>
       </c>
       <c r="C127" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D127" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="E127" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="E127" s="8" t="s">
-        <v>468</v>
-      </c>
       <c r="F127" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>119</v>
@@ -11430,7 +11466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>357</v>
       </c>
@@ -11438,16 +11474,16 @@
         <v>124</v>
       </c>
       <c r="C128" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D128" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="E128" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="E128" s="8" t="s">
-        <v>471</v>
-      </c>
       <c r="F128" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>119</v>
@@ -11470,7 +11506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>357</v>
       </c>
@@ -11478,16 +11514,16 @@
         <v>125</v>
       </c>
       <c r="C129" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="E129" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="E129" s="8" t="s">
-        <v>474</v>
-      </c>
       <c r="F129" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>119</v>
@@ -11510,7 +11546,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>357</v>
       </c>
@@ -11518,16 +11554,16 @@
         <v>126</v>
       </c>
       <c r="C130" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="E130" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="E130" s="8" t="s">
-        <v>477</v>
-      </c>
       <c r="F130" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>119</v>
@@ -11550,7 +11586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>357</v>
       </c>
@@ -11558,16 +11594,16 @@
         <v>127</v>
       </c>
       <c r="C131" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D131" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="E131" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="F131" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>481</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>119</v>
@@ -11590,7 +11626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>357</v>
       </c>
@@ -11598,16 +11634,16 @@
         <v>128</v>
       </c>
       <c r="C132" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>483</v>
-      </c>
       <c r="E132" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F132" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>481</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>119</v>
@@ -11630,7 +11666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>357</v>
       </c>
@@ -11638,16 +11674,16 @@
         <v>129</v>
       </c>
       <c r="C133" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>485</v>
-      </c>
       <c r="E133" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F133" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>481</v>
       </c>
       <c r="G133" s="8" t="s">
         <v>119</v>
@@ -11670,7 +11706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>357</v>
       </c>
@@ -11678,16 +11714,16 @@
         <v>130</v>
       </c>
       <c r="C134" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="F134" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>119</v>
@@ -11710,7 +11746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>357</v>
       </c>
@@ -11718,16 +11754,16 @@
         <v>131</v>
       </c>
       <c r="C135" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D135" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="E135" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="F135" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>493</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>75</v>
@@ -11750,7 +11786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>357</v>
       </c>
@@ -11758,13 +11794,13 @@
         <v>132</v>
       </c>
       <c r="C136" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D136" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="E136" s="8" t="s">
         <v>495</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>496</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>339</v>
@@ -11790,7 +11826,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>357</v>
       </c>
@@ -11798,16 +11834,16 @@
         <v>133</v>
       </c>
       <c r="C137" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D137" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="E137" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="F137" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>500</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>75</v>
@@ -11830,7 +11866,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>357</v>
       </c>
@@ -11838,13 +11874,13 @@
         <v>134</v>
       </c>
       <c r="C138" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="E138" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>127</v>
@@ -11870,7 +11906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>357</v>
       </c>
@@ -11878,13 +11914,13 @@
         <v>135</v>
       </c>
       <c r="C139" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D139" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="E139" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>506</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>127</v>
@@ -11910,7 +11946,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>357</v>
       </c>
@@ -11918,13 +11954,13 @@
         <v>136</v>
       </c>
       <c r="C140" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D140" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="E140" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>509</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>127</v>
@@ -11950,7 +11986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>357</v>
       </c>
@@ -11958,16 +11994,16 @@
         <v>137</v>
       </c>
       <c r="C141" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D141" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="E141" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="F141" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>513</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>119</v>
@@ -11990,21 +12026,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B142" s="8">
         <v>138</v>
       </c>
       <c r="C142" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="D142" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="E142" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>516</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>339</v>
@@ -12030,7 +12066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>357</v>
       </c>
@@ -12038,7 +12074,7 @@
         <v>139</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -12046,7 +12082,7 @@
         <v>127</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H143" s="8">
         <v>5</v>
@@ -12064,15 +12100,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B144" s="8">
         <v>140</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -12080,7 +12116,7 @@
         <v>127</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H144" s="8">
         <v>1</v>
@@ -12098,7 +12134,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>357</v>
       </c>
@@ -12106,7 +12142,7 @@
         <v>141</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
@@ -12132,20 +12168,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B146" s="8">
         <v>142</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G146" s="8" t="s">
         <v>119</v>
@@ -12166,7 +12202,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>357</v>
       </c>
@@ -12174,16 +12210,16 @@
         <v>143</v>
       </c>
       <c r="C147" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D147" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="E147" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="F147" s="8" t="s">
         <v>525</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>526</v>
       </c>
       <c r="G147" s="8" t="s">
         <v>119</v>
@@ -12206,7 +12242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
         <v>357</v>
       </c>
@@ -12214,19 +12250,19 @@
         <v>144</v>
       </c>
       <c r="C148" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D148" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="E148" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="F148" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="F148" s="8" t="s">
-        <v>530</v>
-      </c>
       <c r="G148" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H148" s="8">
         <v>1</v>
@@ -12246,15 +12282,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B149" s="8">
         <v>145</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -12277,10 +12313,10 @@
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
       <c r="M149" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>357</v>
       </c>
@@ -12288,10 +12324,10 @@
         <v>146</v>
       </c>
       <c r="C150" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D150" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>533</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>118</v>
@@ -12300,7 +12336,7 @@
         <v>127</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H150" s="8">
         <v>1</v>
@@ -12318,7 +12354,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>357</v>
       </c>
@@ -12326,13 +12362,13 @@
         <v>147</v>
       </c>
       <c r="C151" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="E151" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>536</v>
       </c>
       <c r="F151" s="8" t="s">
         <v>127</v>
@@ -12356,18 +12392,18 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B152" s="8">
         <v>148</v>
       </c>
       <c r="C152" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D152" s="8" t="s">
         <v>537</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>538</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>118</v>
@@ -12391,10 +12427,10 @@
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
       <c r="M152" s="8" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="70" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
         <v>357</v>
       </c>
@@ -12402,13 +12438,13 @@
         <v>149</v>
       </c>
       <c r="C153" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D153" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="D153" s="8" t="s">
-        <v>541</v>
-      </c>
       <c r="E153" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>127</v>
@@ -12432,18 +12468,18 @@
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B154" s="8">
         <v>150</v>
       </c>
       <c r="C154" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D154" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>543</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>118</v>
@@ -12467,10 +12503,10 @@
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
       <c r="M154" s="8" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
         <v>357</v>
       </c>
@@ -12478,10 +12514,10 @@
         <v>151</v>
       </c>
       <c r="C155" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D155" s="8" t="s">
         <v>544</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>545</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>118</v>
@@ -12490,7 +12526,7 @@
         <v>127</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H155" s="8">
         <v>1</v>
@@ -12508,7 +12544,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
         <v>357</v>
       </c>
@@ -12516,19 +12552,19 @@
         <v>152</v>
       </c>
       <c r="C156" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D156" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D156" s="8" t="s">
-        <v>547</v>
-      </c>
       <c r="E156" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F156" s="8" t="s">
         <v>127</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H156" s="8">
         <v>1</v>
@@ -12546,7 +12582,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>357</v>
       </c>
@@ -12554,16 +12590,16 @@
         <v>153</v>
       </c>
       <c r="C157" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="D157" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="D157" s="8" t="s">
-        <v>549</v>
-      </c>
       <c r="E157" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G157" s="8" t="s">
         <v>119</v>
@@ -12584,18 +12620,18 @@
         <v>292</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B158" s="8">
         <v>154</v>
       </c>
       <c r="C158" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="D158" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>551</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>118</v>
@@ -12622,7 +12658,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>357</v>
       </c>
@@ -12630,10 +12666,10 @@
         <v>155</v>
       </c>
       <c r="C159" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>552</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>553</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>118</v>
@@ -12660,25 +12696,25 @@
         <v>292</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B160" s="8">
         <v>156</v>
       </c>
       <c r="C160" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D160" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>555</v>
       </c>
       <c r="E160" s="8"/>
       <c r="F160" s="8" t="s">
         <v>127</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H160" s="8">
         <v>1</v>
@@ -12693,10 +12729,10 @@
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
       <c r="M160" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
         <v>357</v>
       </c>
@@ -12704,17 +12740,17 @@
         <v>157</v>
       </c>
       <c r="C161" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>558</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="8" t="s">
         <v>127</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H161" s="8">
         <v>1</v>
@@ -12732,7 +12768,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>357</v>
       </c>
@@ -12740,10 +12776,10 @@
         <v>158</v>
       </c>
       <c r="C162" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="D162" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="E162" s="8"/>
       <c r="F162" s="8" t="s">
@@ -12765,10 +12801,10 @@
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
       <c r="M162" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
         <v>357</v>
       </c>
@@ -12776,17 +12812,17 @@
         <v>159</v>
       </c>
       <c r="C163" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D163" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>562</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8" t="s">
         <v>127</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H163" s="8">
         <v>1</v>
@@ -12801,10 +12837,10 @@
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
       <c r="M163" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>357</v>
       </c>
@@ -12812,10 +12848,10 @@
         <v>160</v>
       </c>
       <c r="C164" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D164" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>564</v>
       </c>
       <c r="E164" s="8"/>
       <c r="F164" s="8" t="s">
@@ -12840,7 +12876,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
         <v>357</v>
       </c>
@@ -12848,14 +12884,14 @@
         <v>161</v>
       </c>
       <c r="C165" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D165" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>566</v>
       </c>
       <c r="E165" s="8"/>
       <c r="F165" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G165" s="8" t="s">
         <v>119</v>
@@ -12876,7 +12912,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>357</v>
       </c>
@@ -12884,10 +12920,10 @@
         <v>162</v>
       </c>
       <c r="C166" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D166" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>568</v>
       </c>
       <c r="E166" s="8"/>
       <c r="F166" s="8" t="s">
@@ -12912,7 +12948,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
         <v>357</v>
       </c>
@@ -12920,10 +12956,10 @@
         <v>163</v>
       </c>
       <c r="C167" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="D167" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>570</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
@@ -12948,7 +12984,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>357</v>
       </c>
@@ -12956,14 +12992,14 @@
         <v>164</v>
       </c>
       <c r="C168" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="D168" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>572</v>
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G168" s="8" t="s">
         <v>119</v>
@@ -12984,7 +13020,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
         <v>357</v>
       </c>
@@ -12992,10 +13028,10 @@
         <v>165</v>
       </c>
       <c r="C169" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D169" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>574</v>
       </c>
       <c r="E169" s="8"/>
       <c r="F169" s="8" t="s">
@@ -13020,7 +13056,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>357</v>
       </c>
@@ -13028,10 +13064,10 @@
         <v>166</v>
       </c>
       <c r="C170" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D170" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>576</v>
       </c>
       <c r="E170" s="8"/>
       <c r="F170" s="8" t="s">
@@ -13056,7 +13092,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
         <v>357</v>
       </c>
@@ -13064,10 +13100,10 @@
         <v>167</v>
       </c>
       <c r="C171" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="D171" s="8" t="s">
         <v>577</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>578</v>
       </c>
       <c r="E171" s="8"/>
       <c r="F171" s="8" t="s">
@@ -13092,7 +13128,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
         <v>357</v>
       </c>
@@ -13100,10 +13136,10 @@
         <v>168</v>
       </c>
       <c r="C172" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D172" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>580</v>
       </c>
       <c r="E172" s="8"/>
       <c r="F172" s="8" t="s">
@@ -13128,7 +13164,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
         <v>357</v>
       </c>
@@ -13136,10 +13172,10 @@
         <v>169</v>
       </c>
       <c r="C173" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D173" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>582</v>
       </c>
       <c r="E173" s="8"/>
       <c r="F173" s="8" t="s">
@@ -13164,7 +13200,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
         <v>357</v>
       </c>
@@ -13172,10 +13208,10 @@
         <v>170</v>
       </c>
       <c r="C174" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D174" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>582</v>
       </c>
       <c r="E174" s="8"/>
       <c r="F174" s="8" t="s">
@@ -13200,7 +13236,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
         <v>357</v>
       </c>
@@ -13208,10 +13244,10 @@
         <v>171</v>
       </c>
       <c r="C175" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D175" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>582</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="8" t="s">
@@ -13236,7 +13272,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
         <v>357</v>
       </c>
@@ -13244,10 +13280,10 @@
         <v>172</v>
       </c>
       <c r="C176" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="D176" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>584</v>
       </c>
       <c r="E176" s="8"/>
       <c r="F176" s="8" t="s">
@@ -13272,7 +13308,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
         <v>357</v>
       </c>
@@ -13280,10 +13316,10 @@
         <v>173</v>
       </c>
       <c r="C177" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="D177" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>584</v>
       </c>
       <c r="E177" s="8"/>
       <c r="F177" s="8" t="s">
@@ -13308,7 +13344,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
         <v>357</v>
       </c>
@@ -13316,10 +13352,10 @@
         <v>174</v>
       </c>
       <c r="C178" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D178" s="8" t="s">
         <v>585</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>586</v>
       </c>
       <c r="E178" s="8"/>
       <c r="F178" s="8" t="s">
@@ -13344,7 +13380,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
         <v>357</v>
       </c>
@@ -13352,10 +13388,10 @@
         <v>175</v>
       </c>
       <c r="C179" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="D179" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>588</v>
       </c>
       <c r="E179" s="8"/>
       <c r="F179" s="8" t="s">
@@ -13380,7 +13416,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
         <v>357</v>
       </c>
@@ -13388,10 +13424,10 @@
         <v>176</v>
       </c>
       <c r="C180" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="D180" s="8" t="s">
         <v>589</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>590</v>
       </c>
       <c r="E180" s="8"/>
       <c r="F180" s="8" t="s">
@@ -13416,7 +13452,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>357</v>
       </c>
@@ -13424,10 +13460,10 @@
         <v>177</v>
       </c>
       <c r="C181" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D181" s="8" t="s">
         <v>591</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>592</v>
       </c>
       <c r="E181" s="8"/>
       <c r="F181" s="8" t="s">
@@ -13452,7 +13488,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
         <v>357</v>
       </c>
@@ -13460,10 +13496,10 @@
         <v>178</v>
       </c>
       <c r="C182" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="D182" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>594</v>
       </c>
       <c r="E182" s="8"/>
       <c r="F182" s="8" t="s">
@@ -13488,7 +13524,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
         <v>357</v>
       </c>
@@ -13496,10 +13532,10 @@
         <v>179</v>
       </c>
       <c r="C183" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="D183" s="8" t="s">
         <v>595</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>596</v>
       </c>
       <c r="E183" s="8"/>
       <c r="F183" s="8" t="s">
@@ -13524,7 +13560,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>357</v>
       </c>
@@ -13532,10 +13568,10 @@
         <v>180</v>
       </c>
       <c r="C184" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D184" s="8" t="s">
         <v>597</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>598</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="8" t="s">
@@ -13560,7 +13596,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>357</v>
       </c>
@@ -13568,10 +13604,10 @@
         <v>181</v>
       </c>
       <c r="C185" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D185" s="8" t="s">
         <v>597</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>598</v>
       </c>
       <c r="E185" s="8"/>
       <c r="F185" s="8" t="s">
@@ -13596,7 +13632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>357</v>
       </c>
@@ -13604,10 +13640,10 @@
         <v>182</v>
       </c>
       <c r="C186" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="D186" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>600</v>
       </c>
       <c r="E186" s="8"/>
       <c r="F186" s="8" t="s">
@@ -13632,7 +13668,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>357</v>
       </c>
@@ -13640,10 +13676,10 @@
         <v>183</v>
       </c>
       <c r="C187" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="D187" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>602</v>
       </c>
       <c r="E187" s="8"/>
       <c r="F187" s="8" t="s">
@@ -13668,7 +13704,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
         <v>357</v>
       </c>
@@ -13676,10 +13712,10 @@
         <v>184</v>
       </c>
       <c r="C188" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D188" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>604</v>
       </c>
       <c r="E188" s="8"/>
       <c r="F188" s="8" t="s">
@@ -13701,10 +13737,10 @@
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
       <c r="M188" s="8" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
         <v>357</v>
       </c>
@@ -13712,10 +13748,10 @@
         <v>185</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E189" s="8"/>
       <c r="F189" s="8" t="s">
@@ -13740,7 +13776,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
         <v>357</v>
       </c>
@@ -13748,11 +13784,11 @@
         <v>186</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D190" s="8"/>
       <c r="E190" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F190" s="8" t="s">
         <v>127</v>
@@ -13776,7 +13812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
         <v>357</v>
       </c>
@@ -13784,11 +13820,11 @@
         <v>187</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D191" s="8"/>
       <c r="E191" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F191" s="8" t="s">
         <v>127</v>
@@ -13812,7 +13848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>357</v>
       </c>
@@ -13820,11 +13856,11 @@
         <v>188</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D192" s="8"/>
       <c r="E192" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F192" s="8" t="s">
         <v>127</v>
@@ -13848,7 +13884,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>357</v>
       </c>
@@ -13856,11 +13892,11 @@
         <v>189</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D193" s="8"/>
       <c r="E193" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F193" s="8" t="s">
         <v>127</v>
@@ -13884,7 +13920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>357</v>
       </c>
@@ -13892,11 +13928,11 @@
         <v>190</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D194" s="8"/>
       <c r="E194" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F194" s="8" t="s">
         <v>127</v>
@@ -13920,7 +13956,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>357</v>
       </c>
@@ -13928,11 +13964,11 @@
         <v>191</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D195" s="8"/>
       <c r="E195" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F195" s="8" t="s">
         <v>127</v>
@@ -13956,7 +13992,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>357</v>
       </c>
@@ -13964,11 +14000,11 @@
         <v>192</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D196" s="8"/>
       <c r="E196" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F196" s="8" t="s">
         <v>127</v>
@@ -13992,7 +14028,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
         <v>357</v>
       </c>
@@ -14000,11 +14036,11 @@
         <v>193</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D197" s="8"/>
       <c r="E197" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F197" s="8" t="s">
         <v>127</v>
@@ -14028,7 +14064,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
         <v>357</v>
       </c>
@@ -14036,11 +14072,11 @@
         <v>194</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D198" s="8"/>
       <c r="E198" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F198" s="8" t="s">
         <v>127</v>
@@ -14064,7 +14100,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>357</v>
       </c>
@@ -14072,11 +14108,11 @@
         <v>195</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D199" s="8"/>
       <c r="E199" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F199" s="8" t="s">
         <v>127</v>
@@ -14100,7 +14136,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
         <v>357</v>
       </c>
@@ -14108,11 +14144,11 @@
         <v>196</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D200" s="8"/>
       <c r="E200" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F200" s="8" t="s">
         <v>127</v>
@@ -14136,7 +14172,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>357</v>
       </c>
@@ -14144,11 +14180,11 @@
         <v>197</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D201" s="8"/>
       <c r="E201" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F201" s="8" t="s">
         <v>127</v>
@@ -14172,7 +14208,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
         <v>357</v>
       </c>
@@ -14180,11 +14216,11 @@
         <v>198</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D202" s="8"/>
       <c r="E202" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F202" s="8" t="s">
         <v>339</v>
@@ -14208,7 +14244,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
         <v>357</v>
       </c>
@@ -14216,14 +14252,14 @@
         <v>199</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D203" s="8"/>
       <c r="E203" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="F203" s="8" t="s">
         <v>631</v>
-      </c>
-      <c r="F203" s="8" t="s">
-        <v>632</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>119</v>
@@ -14244,7 +14280,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:13" ht="140" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>357</v>
       </c>
@@ -14252,10 +14288,10 @@
         <v>200</v>
       </c>
       <c r="C204" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="D204" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>634</v>
       </c>
       <c r="E204" s="8"/>
       <c r="F204" s="8" t="s">
@@ -14300,7 +14336,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14313,7 +14349,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14326,7 +14362,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
